--- a/BA6010/BA6010/excel file result/Test result.xlsx
+++ b/BA6010/BA6010/excel file result/Test result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{498168C7-C84E-4D26-830F-AA7E688482AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FF1A2A-98B3-431C-B5AD-EF9C94C79D45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="10">
   <si>
     <t>date</t>
   </si>
@@ -28,12 +28,6 @@
     <t>heure</t>
   </si>
   <si>
-    <t>ref</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -50,6 +44,12 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>12245d</t>
+  </si>
+  <si>
+    <t>reference</t>
   </si>
 </sst>
 </file>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -382,41 +382,34 @@
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43640.447592592594</v>
       </c>
@@ -427,10 +420,10 @@
         <v>1.2</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43640.448576388888</v>
       </c>
@@ -441,10 +434,10 @@
         <v>1.2</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43640.451817129629</v>
       </c>
@@ -455,10 +448,10 @@
         <v>1.2</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43640.454293981478</v>
       </c>
@@ -469,10 +462,10 @@
         <v>1.2</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43640.454444444447</v>
       </c>
@@ -483,10 +476,10 @@
         <v>1.2</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43640.454479166663</v>
       </c>
@@ -497,10 +490,10 @@
         <v>1.2</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43640.454548611109</v>
       </c>
@@ -511,10 +504,10 @@
         <v>1.2</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43640.723587962966</v>
       </c>
@@ -525,10 +518,10 @@
         <v>1.2</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43641.616006944445</v>
       </c>
@@ -539,10 +532,10 @@
         <v>1.2</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43641.694479166668</v>
       </c>
@@ -553,7 +546,7 @@
         <v>1.2</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -567,7 +560,321 @@
         <v>1.2</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>43644.715451388889</v>
+      </c>
+      <c r="B18">
+        <v>3.7</v>
+      </c>
+      <c r="C18">
+        <v>1.2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>43644.732905092591</v>
+      </c>
+      <c r="B19">
+        <v>3.7</v>
+      </c>
+      <c r="C19">
+        <v>1.2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>43644.733738425923</v>
+      </c>
+      <c r="B20">
+        <v>3.7</v>
+      </c>
+      <c r="C20">
+        <v>1.2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>43644.733935185184</v>
+      </c>
+      <c r="B21">
+        <v>3.7</v>
+      </c>
+      <c r="C21">
+        <v>1.2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>43644.734039351853</v>
+      </c>
+      <c r="B22">
+        <v>3.7</v>
+      </c>
+      <c r="C22">
+        <v>1.2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>43644.734155092592</v>
+      </c>
+      <c r="B23">
+        <v>3.7</v>
+      </c>
+      <c r="C23">
+        <v>1.2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>43644.734282407408</v>
+      </c>
+      <c r="B24">
+        <v>3.7</v>
+      </c>
+      <c r="C24">
+        <v>1.2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>43647.60229166667</v>
+      </c>
+      <c r="B25">
+        <v>3.7</v>
+      </c>
+      <c r="C25">
+        <v>1.2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>43649.733541666668</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>43649.740833333337</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>43650.42496527778</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>43650.437442129631</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>43650.446180555555</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>43650.446481481478</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>43650.453553240739</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>43650.453703703701</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>43650.460821759261</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>43650.729097222225</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>43650.72928240741</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>43650.729664351849</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>43651.493263888886</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>0.01</v>
+      </c>
+      <c r="D38">
+        <v>8770.86</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>43651.493402777778</v>
+      </c>
+      <c r="B39">
+        <v>22</v>
+      </c>
+      <c r="C39">
+        <v>0.01</v>
+      </c>
+      <c r="D39">
+        <v>8767.49</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
